--- a/管理项目review及开发计划.xlsx
+++ b/管理项目review及开发计划.xlsx
@@ -1147,8 +1147,8 @@
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>610235</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>140335</xdr:rowOff>
     </xdr:to>
@@ -1168,7 +1168,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="635" y="13593445"/>
-          <a:ext cx="24384000" cy="12363450"/>
+          <a:ext cx="24383365" cy="12363450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1377,6 +1377,34 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>华北电力相关的问题。如果不选，则显示全部问题，如果不选择本人负责，则显示所有学校，及所有学校问题</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>月份先开发，这个管理项目，后续考虑跟鹏飞一起维护</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>供应链协同及工会项目。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
@@ -1640,7 +1668,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AR93" sqref="AR93"/>
+      <selection activeCell="AR10" sqref="AR9:AR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
